--- a/data/trans_bre/P25_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_3-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,45%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>49,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>-15,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>28,5%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19,45%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,5%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 7,35</t>
+          <t>-15,08; 7,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 13,25</t>
+          <t>-2,13; 12,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 10,44</t>
+          <t>-2,98; 11,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 8,19</t>
+          <t>-14,27; 12,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 35,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 107,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 56,07</t>
+          <t>-46,3; 40,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 32,51</t>
+          <t>-11,02; 89,57</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-11,04; 59,9</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-37,16; 58,58</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,26%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>-16,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,8%</t>
+          <t>-3,06%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15,41%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-1,55%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 3,23</t>
+          <t>-7,48; 2,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 3,58</t>
+          <t>-4,97; 4,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 5,2</t>
+          <t>-2,31; 5,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 3,7</t>
+          <t>-6,01; 4,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 34,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 36,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 55,23</t>
+          <t>-43,11; 22,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,44; 28,98</t>
+          <t>-30,78; 36,78</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-17,56; 57,23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-30,27; 36,55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,55</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,29%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,18%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-41,98%</t>
+          <t>-15,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>-32,53%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-41,41%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-32,51%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 4,01</t>
+          <t>-6,77; 3,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 1,47</t>
+          <t>-9,48; -0,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,19; -1,87</t>
+          <t>-9,05; -1,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 7,49</t>
+          <t>-11,98; -0,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,18; 48,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,43; 13,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-59,55; -16,12</t>
+          <t>-48,84; 40,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,22; 112,22</t>
+          <t>-54,09; -1,2</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-58,8; -13,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-53,52; 0,07</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>43,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>87,27%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>42,36%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 2,8</t>
+          <t>0,26; 9,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 3,91</t>
+          <t>2,16; 12,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 3,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 4,54</t>
+          <t>0,17; 12,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 23,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 32,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 25,78</t>
+          <t>2,3; 102,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 28,63</t>
+          <t>19,9; 189,58</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 106,85</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,99%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 3,6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 4,03</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 3,18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 3,93</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-14,77; 30,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-10,01; 33,73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-13,7; 24,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-14,7; 23,38</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_3-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-4,13</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,52</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,7</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-15,92%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>28,5%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>19,45%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-5,5%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-5.378792274767999</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.918223876472711</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.445394480971091</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.499811462641365</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.2028650986370677</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.267533873810307</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1941444252378672</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.04940182130395404</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,08; 7,82</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 12,97</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 11,41</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-14,27; 12,36</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-46,3; 40,88</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-11,02; 89,57</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-11,04; 59,9</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-37,16; 58,58</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.5430270718048</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.522951053361808</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.025447299910666</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-13.79018387432707</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.4957260340459778</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1260355852825474</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1058539525901443</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3617398477931469</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.219750178826811</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.45480344149324</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.15403960759549</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.3723841449654</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.3037967151561276</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.8962730115769021</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5914560900030474</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.5911306878239829</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,37</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,75</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-16,43%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-3,06%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>15,41%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-1,55%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,48; 2,51</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 4,15</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 5,35</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; 4,93</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-43,11; 22,51</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-30,78; 36,78</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-17,56; 57,23</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-30,27; 36,55</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-1.807884992127371</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2288676660266914</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.945106665730639</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.2938556288654165</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.131526502167171</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.01728274952668282</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1772220665726241</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.01756792432847909</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,47</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,42</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-15,11%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-32,53%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-41,41%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-32,51%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.756814504432171</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.804058846712972</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.903297660136515</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.791382134688345</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.4118166473596204</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3094441173256661</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1432899242625273</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2924681278160668</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,77; 3,17</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,48; -0,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,05; -1,57</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-11,98; -0,03</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-48,84; 40,28</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-54,09; -1,2</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-58,8; -13,01</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-53,52; 0,07</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.813987438883945</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.986739675463563</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.405971189642665</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.010145519158735</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.2485949191445776</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.381970987938219</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5922395034482917</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3730228774906212</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,99</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,12</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,08</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>43,31%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>87,27%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>42,36%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.8439196072917377</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.759353430208088</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.637817050688694</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-6.547906995457245</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.08361038951035674</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3258391295271913</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.4265482607031907</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.3359703103332379</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 9,35</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 12,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 12,42</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 102,31</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>19,9; 189,58</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 106,85</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.779668412070738</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.513863658094772</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.222954759958821</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-12.0773664339731</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.4475957028075196</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5303090939010966</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.5933636472987235</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5389129107952328</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.083636354728205</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.1529465379626675</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-1.902477853855104</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.4043879533096222</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.5445952225498739</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.004589136614617684</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.1481978829994255</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>-0.02171110424959007</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10,38%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,53%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,23; 3,6</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 4,03</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 3,18</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 3,93</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-14,77; 30,44</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-10,01; 33,73</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-13,7; 24,24</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-14,7; 23,38</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.74825569161888</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.4095914103669857</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.6486757893098688</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.99495107039297</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.1206869295279997</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.02782408692590441</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.04568705145534258</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.09837043608574285</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.351687483193031</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.364652513125379</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.050780956484789</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-6.18864432248184</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.3278443951393306</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2049245915227798</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1274727765502138</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2735955656767993</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.772116379939327</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.663230180502006</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.225239284411127</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.461680079022064</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.1420138701564157</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1998525502718795</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2563996438173858</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.1317144520071464</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
